--- a/exports/statistics/analysis_cortisol_features_condition.xlsx
+++ b/exports/statistics/analysis_cortisol_features_condition.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="69">
   <si>
     <t>parameter</t>
   </si>
@@ -47,7 +47,7 @@
     <t>cortisol</t>
   </si>
   <si>
-    <t>fdr_bh</t>
+    <t>bonf</t>
   </si>
   <si>
     <t>W</t>
@@ -68,13 +68,16 @@
     <t>cini</t>
   </si>
   <si>
+    <t>cmax</t>
+  </si>
+  <si>
     <t>max_inc</t>
   </si>
   <si>
-    <t>slope03</t>
-  </si>
-  <si>
-    <t>slope04</t>
+    <t>slopeS0S3</t>
+  </si>
+  <si>
+    <t>slopeS0S4</t>
   </si>
   <si>
     <t>Known Alarm</t>
@@ -158,58 +161,67 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>0.208</t>
-  </si>
-  <si>
-    <t>0.442</t>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>4.385</t>
+  </si>
+  <si>
+    <t>2.283</t>
+  </si>
+  <si>
+    <t>0.221</t>
   </si>
   <si>
     <t>0.419</t>
   </si>
   <si>
-    <t>0.218</t>
-  </si>
-  <si>
-    <t>2.371</t>
-  </si>
-  <si>
-    <t>10.234</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>1.663</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>3.31</t>
-  </si>
-  <si>
-    <t>7.669</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>4.429</t>
-  </si>
-  <si>
-    <t>56.753</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>2.615</t>
-  </si>
-  <si>
-    <t>103.97</t>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.279</t>
+  </si>
+  <si>
+    <t>2.348</t>
+  </si>
+  <si>
+    <t>1.024</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>7.482</t>
+  </si>
+  <si>
+    <t>3.203</t>
+  </si>
+  <si>
+    <t>0.233</t>
+  </si>
+  <si>
+    <t>13.226</t>
+  </si>
+  <si>
+    <t>9.028</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>6.895</t>
+  </si>
+  <si>
+    <t>20.399</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -629,7 +641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +649,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -660,43 +672,43 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>0.9389999999999999</v>
+        <v>0.965</v>
       </c>
       <c r="D3">
-        <v>0.027</v>
+        <v>0.284</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
       <c r="D4">
-        <v>0.035</v>
+        <v>0.339</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>0.974</v>
+        <v>0.976</v>
       </c>
       <c r="D5">
-        <v>0.451</v>
+        <v>0.614</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -707,43 +719,43 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>0.9330000000000001</v>
+        <v>0.987</v>
       </c>
       <c r="D6">
-        <v>0.017</v>
+        <v>0.93</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>0.958</v>
+        <v>0.987</v>
       </c>
       <c r="D7">
-        <v>0.012</v>
+        <v>0.678</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>0.982</v>
+        <v>0.978</v>
       </c>
       <c r="D8">
-        <v>0.738</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -754,28 +766,28 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>0.9350000000000001</v>
+        <v>0.954</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>0.126</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>0.739</v>
+        <v>0.927</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -784,13 +796,13 @@
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>0.966</v>
+        <v>0.961</v>
       </c>
       <c r="D11">
-        <v>0.252</v>
+        <v>0.236</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -801,43 +813,43 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0.88</v>
+        <v>0.947</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>0.9360000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="D13">
-        <v>0.001</v>
+        <v>0.853</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.979</v>
+        <v>0.974</v>
       </c>
       <c r="D14">
-        <v>0.647</v>
+        <v>0.533</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -848,43 +860,43 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>0.926</v>
+        <v>0.975</v>
       </c>
       <c r="D15">
-        <v>0.008999999999999999</v>
+        <v>0.573</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>0.956</v>
+        <v>0.968</v>
       </c>
       <c r="D16">
-        <v>0.011</v>
+        <v>0.074</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>0.965</v>
+        <v>0.979</v>
       </c>
       <c r="D17">
-        <v>0.231</v>
+        <v>0.71</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -895,28 +907,28 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>0.88</v>
+        <v>0.988</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.953</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>0.968</v>
+        <v>0.964</v>
       </c>
       <c r="D19">
-        <v>0.049</v>
+        <v>0.045</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -925,26 +937,74 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>0.968</v>
+      </c>
+      <c r="D20">
+        <v>0.381</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0.992</v>
+      </c>
+      <c r="D21">
+        <v>0.993</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>0.954</v>
       </c>
-      <c r="D20">
-        <v>0.098</v>
-      </c>
-      <c r="E20" t="b">
+      <c r="D22">
+        <v>0.013</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>0.957</v>
+      </c>
+      <c r="D23">
+        <v>0.171</v>
+      </c>
+      <c r="E23" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -952,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -960,7 +1020,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -975,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -983,13 +1043,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>0.35</v>
+        <v>0.151</v>
       </c>
       <c r="D3">
-        <v>0.705</v>
+        <v>0.86</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1000,13 +1060,13 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>0.128</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4">
-        <v>0.88</v>
+        <v>0.393</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1017,13 +1077,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>0.446</v>
+        <v>0.007</v>
       </c>
       <c r="D5">
-        <v>0.641</v>
+        <v>0.993</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1034,13 +1094,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>1.129</v>
+        <v>2.172</v>
       </c>
       <c r="D6">
-        <v>0.326</v>
+        <v>0.118</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1051,16 +1111,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>1.022</v>
+        <v>3.563</v>
       </c>
       <c r="D7">
-        <v>0.362</v>
+        <v>0.031</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1068,16 +1128,33 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>1.983</v>
+        <v>2.364</v>
       </c>
       <c r="D8">
-        <v>0.141</v>
+        <v>0.098</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>3.572</v>
+      </c>
+      <c r="D9">
+        <v>0.031</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1095,7 +1172,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1104,22 +1181,22 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1136,16 +1213,16 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F3">
-        <v>1.029</v>
+        <v>1.211</v>
       </c>
       <c r="G3">
-        <v>0.36</v>
+        <v>0.301</v>
       </c>
       <c r="H3">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1162,13 +1239,13 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F4">
-        <v>4.707</v>
+        <v>4.178</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
+        <v>0.017</v>
       </c>
       <c r="H4">
         <v>0.057</v>
@@ -1188,16 +1265,16 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F5">
-        <v>1.961</v>
+        <v>1.195</v>
       </c>
       <c r="G5">
-        <v>0.144</v>
+        <v>0.306</v>
       </c>
       <c r="H5">
-        <v>0.025</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1214,16 +1291,16 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F6">
-        <v>5.083</v>
+        <v>3.388</v>
       </c>
       <c r="G6">
-        <v>0.007</v>
+        <v>0.037</v>
       </c>
       <c r="H6">
-        <v>0.061</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1240,16 +1317,16 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F7">
-        <v>7.443</v>
+        <v>5.452</v>
       </c>
       <c r="G7">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="H7">
-        <v>0.08699999999999999</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1266,16 +1343,42 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F8">
-        <v>8.324999999999999</v>
+        <v>6.876</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="H8">
-        <v>0.096</v>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>139</v>
+      </c>
+      <c r="F9">
+        <v>7.452</v>
+      </c>
+      <c r="G9">
+        <v>0.001</v>
+      </c>
+      <c r="H9">
+        <v>0.097</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1293,7 +1396,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1302,43 +1405,43 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1352,10 +1455,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -1364,28 +1467,28 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-0.223</v>
+        <v>-0.574</v>
       </c>
       <c r="I3">
-        <v>73.23399999999999</v>
+        <v>67.202</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>0.824</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="L3">
-        <v>0.824</v>
+        <v>1</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3">
-        <v>-0.045</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1397,10 +1500,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1409,28 +1512,28 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-1.23</v>
+        <v>-1.425</v>
       </c>
       <c r="I4">
-        <v>80.557</v>
+        <v>70.49299999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>0.222</v>
+        <v>0.159</v>
       </c>
       <c r="L4">
-        <v>0.333</v>
+        <v>0.477</v>
       </c>
       <c r="M4" t="s">
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O4">
-        <v>-0.267</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1442,10 +1545,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -1454,28 +1557,28 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-1.267</v>
+        <v>-1.114</v>
       </c>
       <c r="I5">
-        <v>76.998</v>
+        <v>61.715</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.209</v>
+        <v>0.27</v>
       </c>
       <c r="L5">
-        <v>0.333</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M5" t="s">
         <v>9</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5">
-        <v>-0.249</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1489,10 +1592,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1501,28 +1604,28 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.393</v>
+        <v>-0.5580000000000001</v>
       </c>
       <c r="I6">
-        <v>87.816</v>
+        <v>81.94799999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.695</v>
+        <v>0.578</v>
       </c>
       <c r="L6">
-        <v>0.695</v>
+        <v>1</v>
       </c>
       <c r="M6" t="s">
         <v>9</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O6">
-        <v>0.074</v>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1534,10 +1637,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1546,16 +1649,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-2.335</v>
+        <v>-2.629</v>
       </c>
       <c r="I7">
-        <v>80.901</v>
+        <v>66.904</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="L7">
         <v>0.033</v>
@@ -1564,10 +1667,10 @@
         <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O7">
-        <v>-0.508</v>
+        <v>-0.611</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1579,10 +1682,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1591,28 +1694,28 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-2.989</v>
+        <v>-2.325</v>
       </c>
       <c r="I8">
-        <v>84.367</v>
+        <v>65.14100000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.004</v>
+        <v>0.023</v>
       </c>
       <c r="L8">
-        <v>0.012</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="M8" t="s">
         <v>9</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O8">
-        <v>-0.57</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1626,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1638,28 +1741,28 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.6929999999999999</v>
+        <v>-0.256</v>
       </c>
       <c r="I9">
-        <v>107.52</v>
+        <v>74.392</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.49</v>
+        <v>0.799</v>
       </c>
       <c r="L9">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9">
-        <v>-0.121</v>
+        <v>-0.052</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1671,10 +1774,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1683,28 +1786,28 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1.452</v>
+        <v>1.133</v>
       </c>
       <c r="I10">
-        <v>79.28400000000001</v>
+        <v>70.88</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.151</v>
+        <v>0.261</v>
       </c>
       <c r="L10">
-        <v>0.226</v>
+        <v>0.783</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
       </c>
       <c r="N10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O10">
-        <v>0.315</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1716,10 +1819,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -1728,28 +1831,28 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>2.175</v>
+        <v>1.565</v>
       </c>
       <c r="I11">
-        <v>113.174</v>
+        <v>76.212</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.032</v>
+        <v>0.122</v>
       </c>
       <c r="L11">
-        <v>0.096</v>
+        <v>0.366</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
       </c>
       <c r="N11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O11">
-        <v>0.365</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1763,10 +1866,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1775,28 +1878,28 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.121</v>
+        <v>-0.773</v>
       </c>
       <c r="I12">
-        <v>86.047</v>
+        <v>77.08799999999999</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.904</v>
+        <v>0.442</v>
       </c>
       <c r="L12">
-        <v>0.904</v>
+        <v>1</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
       </c>
       <c r="N12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O12">
-        <v>0.023</v>
+        <v>-0.154</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1808,10 +1911,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1820,28 +1923,28 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-2.5</v>
+        <v>-2.321</v>
       </c>
       <c r="I13">
-        <v>79.051</v>
+        <v>64.40600000000001</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.014</v>
+        <v>0.023</v>
       </c>
       <c r="L13">
-        <v>0.021</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O13">
-        <v>-0.545</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1853,10 +1956,10 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1865,28 +1968,28 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>-2.874</v>
+        <v>-1.884</v>
       </c>
       <c r="I14">
-        <v>74.352</v>
+        <v>57.645</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.005</v>
+        <v>0.065</v>
       </c>
       <c r="L14">
-        <v>0.015</v>
+        <v>0.195</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O14">
-        <v>-0.573</v>
+        <v>-0.416</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1900,10 +2003,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1912,28 +2015,28 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.703</v>
+        <v>-0.63</v>
       </c>
       <c r="I15">
-        <v>82.684</v>
+        <v>87.54900000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.484</v>
+        <v>0.531</v>
       </c>
       <c r="L15">
-        <v>0.484</v>
+        <v>1</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
       </c>
       <c r="N15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O15">
-        <v>0.135</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1945,10 +2048,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1957,28 +2060,28 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>-2.636</v>
+        <v>-2.869</v>
       </c>
       <c r="I16">
-        <v>79.40000000000001</v>
+        <v>58.71</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="L16">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
       </c>
       <c r="N16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O16">
-        <v>-0.574</v>
+        <v>-0.669</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1990,10 +2093,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2002,28 +2105,28 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>-3.605</v>
+        <v>-2.489</v>
       </c>
       <c r="I17">
-        <v>72.42</v>
+        <v>57.406</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.001</v>
+        <v>0.016</v>
       </c>
       <c r="L17">
-        <v>0.003</v>
+        <v>0.048</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
       </c>
       <c r="N17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O17">
-        <v>-0.725</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2037,10 +2140,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2049,28 +2152,28 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1.192</v>
+        <v>-0.43</v>
       </c>
       <c r="I18">
-        <v>77.554</v>
+        <v>82.361</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.237</v>
+        <v>0.669</v>
       </c>
       <c r="L18">
-        <v>0.237</v>
+        <v>1</v>
       </c>
       <c r="M18" t="s">
         <v>9</v>
       </c>
       <c r="N18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O18">
-        <v>0.235</v>
+        <v>-0.08400000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2082,10 +2185,10 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2094,28 +2197,28 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>-2.385</v>
+        <v>-3.107</v>
       </c>
       <c r="I19">
-        <v>79.063</v>
+        <v>61.949</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.019</v>
+        <v>0.003</v>
       </c>
       <c r="L19">
-        <v>0.028</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M19" t="s">
         <v>9</v>
       </c>
       <c r="N19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19">
-        <v>-0.52</v>
+        <v>-0.723</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2127,10 +2230,10 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2139,38 +2242,176 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>-3.801</v>
+        <v>-2.938</v>
       </c>
       <c r="I20">
-        <v>67.343</v>
+        <v>57.997</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="M20" t="s">
         <v>9</v>
       </c>
       <c r="N20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20">
-        <v>-0.785</v>
+        <v>-0.647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.362</v>
+      </c>
+      <c r="I21">
+        <v>82.13500000000001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>0.718</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>-2.834</v>
+      </c>
+      <c r="I22">
+        <v>61.182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22">
+        <v>0.006</v>
+      </c>
+      <c r="L22">
+        <v>0.018</v>
+      </c>
+      <c r="M22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>-3.253</v>
+      </c>
+      <c r="I23">
+        <v>56.916</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>0.002</v>
+      </c>
+      <c r="L23">
+        <v>0.006</v>
+      </c>
+      <c r="M23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23">
+        <v>-0.721</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
